--- a/public/tables/plans_2025.xlsx
+++ b/public/tables/plans_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\tmc\public\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5514698-073B-48D1-9DEA-013C9E2F5546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ACA87D-3681-4821-84B4-1D576069E082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A069E4F1-DB39-4176-9509-6DE7CA538D83}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>ValidUntil</t>
-  </si>
-  <si>
     <t>Review</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Valid Until</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,15 +455,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>500</v>
@@ -472,12 +472,12 @@
         <v>59517</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>220</v>
@@ -486,12 +486,12 @@
         <v>51385</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>725</v>
@@ -500,7 +500,7 @@
         <v>78893</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
